--- a/datasheets/Chenery_et_al_2010.xlsx
+++ b/datasheets/Chenery_et_al_2010.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="80">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -154,6 +154,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLR1103</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/j.jas.2009.09.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chenery et al. (2010)</t>
   </si>
   <si>
     <t xml:space="preserve">GLR1127</t>
@@ -371,31 +377,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,10 +422,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR91"/>
+  <dimension ref="A1:AS91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR2" activeCellId="0" sqref="AR2:AR22"/>
+      <selection pane="topLeft" activeCell="AS2" activeCellId="0" sqref="AS2:AS22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,10 +457,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="48.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="22.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1027" min="45" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="18.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1027" min="46" style="1" width="11.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,43 +594,46 @@
       <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>18.4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" s="5" t="n">
         <v>21.7</v>
@@ -684,48 +694,51 @@
         <v>-9</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>17.2</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" s="5" t="n">
         <v>21.7</v>
@@ -786,48 +799,51 @@
         <v>-9</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>17.1</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>21.7</v>
@@ -888,48 +904,51 @@
         <v>-9</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>17.6</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>21.7</v>
@@ -990,48 +1009,51 @@
         <v>-9</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>19.2</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" s="5" t="n">
         <v>21.7</v>
@@ -1092,48 +1114,51 @@
         <v>-9</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>17.1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>21.7</v>
@@ -1194,48 +1219,51 @@
         <v>-9</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>18</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>21.7</v>
@@ -1296,48 +1324,51 @@
         <v>-9</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>17.9</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="5" t="n">
         <v>21.7</v>
@@ -1398,48 +1429,51 @@
         <v>-9</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>19</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10" s="5" t="n">
         <v>21.7</v>
@@ -1500,48 +1534,51 @@
         <v>-9</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>18.2</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11" s="5" t="n">
         <v>21.7</v>
@@ -1602,48 +1639,51 @@
         <v>-9</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>17.9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="5" t="n">
         <v>21.7</v>
@@ -1704,48 +1744,51 @@
         <v>-9</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>18.6</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N13" s="5" t="n">
         <v>21.7</v>
@@ -1806,48 +1849,51 @@
         <v>-9</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>17.5</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N14" s="5" t="n">
         <v>21.7</v>
@@ -1908,48 +1954,51 @@
         <v>-9</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>17.1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N15" s="5" t="n">
         <v>21.7</v>
@@ -2010,48 +2059,51 @@
         <v>-9</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>18.2</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>21.7</v>
@@ -2112,48 +2164,51 @@
         <v>-9</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>19.1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>21.7</v>
@@ -2214,48 +2269,51 @@
         <v>-9</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>17.4</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N18" s="5" t="n">
         <v>21.7</v>
@@ -2316,48 +2374,51 @@
         <v>-9</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>18.7</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N19" s="5" t="n">
         <v>21.7</v>
@@ -2418,48 +2479,51 @@
         <v>-9</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>18.7</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N20" s="5" t="n">
         <v>21.7</v>
@@ -2520,48 +2584,51 @@
         <v>-9</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>19</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N21" s="5" t="n">
         <v>21.7</v>
@@ -2622,48 +2689,51 @@
         <v>-9</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>17.7</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N22" s="5" t="n">
         <v>21.7</v>
@@ -2724,10 +2794,13 @@
         <v>-9</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/datasheets/Chenery_et_al_2010.xlsx
+++ b/datasheets/Chenery_et_al_2010.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="81">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">d18Op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18Operror</t>
   </si>
   <si>
     <t xml:space="preserve">Method</t>
@@ -422,10 +425,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS91"/>
+  <dimension ref="A1:AT91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AS2" activeCellId="0" sqref="AS2:AS22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -437,28 +440,28 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="19.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="13" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="38" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="48.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="22.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="18.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1027" min="46" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="15.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="14" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="13.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="39" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="48.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="18.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1028" min="47" style="1" width="11.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,7 +507,7 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
@@ -597,104 +600,107 @@
       <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>18.4</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>54</v>
+      <c r="L2" s="5" t="n">
+        <v>0.3</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="V2" s="6" t="n">
+      <c r="P2" s="5"/>
+      <c r="W2" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="X2" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z2" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA2" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC2" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD2" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD2" s="1" t="n">
+      <c r="AE2" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE2" s="1" t="n">
+      <c r="AF2" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF2" s="1" t="n">
+      <c r="AG2" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG2" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH2" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI2" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI2" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ2" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK2" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL2" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AM2" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AN2" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>57</v>
@@ -702,104 +708,107 @@
       <c r="AS2" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT2" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>17.2</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>54</v>
+      <c r="L3" s="5" t="n">
+        <v>0.3</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="V3" s="6" t="n">
+      <c r="P3" s="5"/>
+      <c r="W3" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="X3" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="Y3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Z3" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z3" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA3" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC3" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD3" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD3" s="1" t="n">
+      <c r="AE3" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE3" s="1" t="n">
+      <c r="AF3" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF3" s="1" t="n">
+      <c r="AG3" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG3" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH3" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI3" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI3" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ3" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK3" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL3" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AM3" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AN3" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>57</v>
@@ -807,104 +816,107 @@
       <c r="AS3" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>17.1</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>54</v>
+      <c r="L4" s="5" t="n">
+        <v>0.3</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="V4" s="6" t="n">
+      <c r="P4" s="5"/>
+      <c r="W4" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="X4" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="Y4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z4" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA4" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC4" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD4" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AE4" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AF4" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF4" s="1" t="n">
+      <c r="AG4" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG4" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH4" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI4" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI4" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ4" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK4" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL4" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="AM4" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="AN4" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>57</v>
@@ -912,209 +924,215 @@
       <c r="AS4" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT4" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>17.6</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>54</v>
+      <c r="L5" s="5" t="n">
+        <v>0.3</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="N5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="V5" s="6" t="n">
+      <c r="P5" s="5"/>
+      <c r="W5" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="X5" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="Y5" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z5" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA5" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB5" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC5" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD5" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AF5" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF5" s="1" t="n">
+      <c r="AG5" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG5" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH5" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI5" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI5" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ5" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK5" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL5" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL5" s="1" t="n">
+      <c r="AM5" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM5" s="1" t="n">
+      <c r="AN5" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="AQ5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AR5" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT5" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>19.2</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>54</v>
+      <c r="L6" s="5" t="n">
+        <v>0.3</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="V6" s="6" t="n">
+      <c r="P6" s="5"/>
+      <c r="W6" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="X6" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="Y6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z6" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA6" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB6" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC6" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD6" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD6" s="1" t="n">
+      <c r="AE6" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE6" s="1" t="n">
+      <c r="AF6" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF6" s="1" t="n">
+      <c r="AG6" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG6" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH6" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI6" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI6" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ6" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK6" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL6" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL6" s="1" t="n">
+      <c r="AM6" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM6" s="1" t="n">
+      <c r="AN6" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>57</v>
@@ -1122,104 +1140,107 @@
       <c r="AS6" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT6" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>17.1</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>54</v>
+      <c r="L7" s="5" t="n">
+        <v>0.1</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="V7" s="6" t="n">
+      <c r="P7" s="5"/>
+      <c r="W7" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="X7" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="Y7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z7" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA7" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB7" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC7" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD7" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD7" s="1" t="n">
+      <c r="AE7" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE7" s="1" t="n">
+      <c r="AF7" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF7" s="1" t="n">
+      <c r="AG7" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG7" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH7" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI7" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI7" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ7" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK7" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL7" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL7" s="1" t="n">
+      <c r="AM7" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM7" s="1" t="n">
+      <c r="AN7" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>57</v>
@@ -1227,104 +1248,107 @@
       <c r="AS7" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT7" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>54</v>
+      <c r="L8" s="5" t="n">
+        <v>0.3</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="N8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="V8" s="6" t="n">
+      <c r="P8" s="5"/>
+      <c r="W8" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="X8" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="Y8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z8" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA8" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB8" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC8" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD8" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD8" s="1" t="n">
+      <c r="AE8" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE8" s="1" t="n">
+      <c r="AF8" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF8" s="1" t="n">
+      <c r="AG8" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG8" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH8" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI8" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI8" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ8" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK8" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL8" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL8" s="1" t="n">
+      <c r="AM8" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM8" s="1" t="n">
+      <c r="AN8" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>57</v>
@@ -1332,314 +1356,323 @@
       <c r="AS8" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT8" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>17.9</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>54</v>
+      <c r="L9" s="5" t="n">
+        <v>0.3</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="V9" s="6" t="n">
+      <c r="P9" s="5"/>
+      <c r="W9" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="X9" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="Y9" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z9" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA9" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB9" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC9" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD9" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AE9" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE9" s="1" t="n">
+      <c r="AF9" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF9" s="1" t="n">
+      <c r="AG9" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG9" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH9" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI9" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI9" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ9" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK9" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL9" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL9" s="1" t="n">
+      <c r="AM9" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM9" s="1" t="n">
+      <c r="AN9" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="AQ9" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AR9" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT9" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>54</v>
+      <c r="L10" s="5" t="n">
+        <v>0.4</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="V10" s="6" t="n">
+      <c r="P10" s="5"/>
+      <c r="W10" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W10" s="6" t="n">
+      <c r="X10" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="Y10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z10" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA10" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB10" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC10" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD10" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD10" s="1" t="n">
+      <c r="AE10" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE10" s="1" t="n">
+      <c r="AF10" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF10" s="1" t="n">
+      <c r="AG10" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG10" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH10" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI10" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI10" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ10" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK10" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL10" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL10" s="1" t="n">
+      <c r="AM10" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM10" s="1" t="n">
+      <c r="AN10" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="AQ10" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AR10" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT10" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>18.2</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>54</v>
+      <c r="L11" s="5" t="n">
+        <v>0.2</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="V11" s="6" t="n">
+      <c r="P11" s="5"/>
+      <c r="W11" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W11" s="6" t="n">
+      <c r="X11" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="Y11" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z11" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA11" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB11" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC11" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD11" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD11" s="1" t="n">
+      <c r="AE11" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE11" s="1" t="n">
+      <c r="AF11" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF11" s="1" t="n">
+      <c r="AG11" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG11" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH11" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI11" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI11" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ11" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK11" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL11" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL11" s="1" t="n">
+      <c r="AM11" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM11" s="1" t="n">
+      <c r="AN11" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR11" s="1" t="s">
         <v>57</v>
@@ -1647,209 +1680,215 @@
       <c r="AS11" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT11" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>17.9</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>54</v>
+      <c r="L12" s="5" t="n">
+        <v>0.3</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="V12" s="6" t="n">
+      <c r="P12" s="5"/>
+      <c r="W12" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W12" s="6" t="n">
+      <c r="X12" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="Y12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z12" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA12" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB12" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC12" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD12" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD12" s="1" t="n">
+      <c r="AE12" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE12" s="1" t="n">
+      <c r="AF12" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF12" s="1" t="n">
+      <c r="AG12" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG12" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH12" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI12" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI12" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ12" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK12" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL12" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL12" s="1" t="n">
+      <c r="AM12" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM12" s="1" t="n">
+      <c r="AN12" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="AQ12" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AR12" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AS12" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT12" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>18.6</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>54</v>
+      <c r="L13" s="5" t="n">
+        <v>0.1</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="N13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="V13" s="6" t="n">
+      <c r="P13" s="5"/>
+      <c r="W13" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="X13" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="Y13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z13" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA13" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB13" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC13" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD13" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD13" s="1" t="n">
+      <c r="AE13" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE13" s="1" t="n">
+      <c r="AF13" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF13" s="1" t="n">
+      <c r="AG13" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG13" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH13" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI13" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI13" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ13" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK13" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL13" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL13" s="1" t="n">
+      <c r="AM13" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM13" s="1" t="n">
+      <c r="AN13" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR13" s="1" t="s">
         <v>57</v>
@@ -1857,104 +1896,107 @@
       <c r="AS13" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT13" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>17.5</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>54</v>
+      <c r="L14" s="5" t="n">
+        <v>0.1</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="N14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="V14" s="6" t="n">
+      <c r="P14" s="5"/>
+      <c r="W14" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="X14" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="Y14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z14" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA14" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB14" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC14" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD14" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD14" s="1" t="n">
+      <c r="AE14" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE14" s="1" t="n">
+      <c r="AF14" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF14" s="1" t="n">
+      <c r="AG14" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG14" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH14" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI14" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI14" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ14" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK14" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL14" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL14" s="1" t="n">
+      <c r="AM14" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM14" s="1" t="n">
+      <c r="AN14" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR14" s="1" t="s">
         <v>57</v>
@@ -1962,104 +2004,107 @@
       <c r="AS14" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT14" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>17.1</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>54</v>
+      <c r="L15" s="5" t="n">
+        <v>0.2</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="N15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="V15" s="6" t="n">
+      <c r="P15" s="5"/>
+      <c r="W15" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="X15" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="Y15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z15" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA15" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC15" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD15" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD15" s="1" t="n">
+      <c r="AE15" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE15" s="1" t="n">
+      <c r="AF15" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF15" s="1" t="n">
+      <c r="AG15" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG15" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH15" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI15" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI15" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ15" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK15" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL15" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL15" s="1" t="n">
+      <c r="AM15" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM15" s="1" t="n">
+      <c r="AN15" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR15" s="1" t="s">
         <v>57</v>
@@ -2067,104 +2112,107 @@
       <c r="AS15" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT15" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>18.2</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>54</v>
+      <c r="L16" s="5" t="n">
+        <v>0.2</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="N16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="V16" s="6" t="n">
+      <c r="P16" s="5"/>
+      <c r="W16" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="X16" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="Y16" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z16" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA16" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC16" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD16" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD16" s="1" t="n">
+      <c r="AE16" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE16" s="1" t="n">
+      <c r="AF16" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF16" s="1" t="n">
+      <c r="AG16" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG16" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH16" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI16" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI16" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ16" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK16" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL16" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL16" s="1" t="n">
+      <c r="AM16" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM16" s="1" t="n">
+      <c r="AN16" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR16" s="1" t="s">
         <v>57</v>
@@ -2172,104 +2220,107 @@
       <c r="AS16" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT16" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>19.1</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>54</v>
+      <c r="L17" s="5" t="n">
+        <v>0.1</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="5" t="n">
+      <c r="N17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="V17" s="6" t="n">
+      <c r="P17" s="5"/>
+      <c r="W17" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W17" s="6" t="n">
+      <c r="X17" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X17" s="1" t="n">
+      <c r="Y17" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y17" s="1" t="n">
+      <c r="Z17" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z17" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA17" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC17" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD17" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD17" s="1" t="n">
+      <c r="AE17" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE17" s="1" t="n">
+      <c r="AF17" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF17" s="1" t="n">
+      <c r="AG17" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG17" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH17" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI17" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI17" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ17" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK17" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL17" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL17" s="1" t="n">
+      <c r="AM17" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM17" s="1" t="n">
+      <c r="AN17" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR17" s="1" t="s">
         <v>57</v>
@@ -2277,104 +2328,107 @@
       <c r="AS17" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT17" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>17.4</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>54</v>
+      <c r="L18" s="5" t="n">
+        <v>0.4</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="N18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="V18" s="6" t="n">
+      <c r="P18" s="5"/>
+      <c r="W18" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W18" s="6" t="n">
+      <c r="X18" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X18" s="1" t="n">
+      <c r="Y18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y18" s="1" t="n">
+      <c r="Z18" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z18" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA18" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB18" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC18" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD18" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD18" s="1" t="n">
+      <c r="AE18" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE18" s="1" t="n">
+      <c r="AF18" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF18" s="1" t="n">
+      <c r="AG18" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG18" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH18" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI18" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI18" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ18" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK18" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL18" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL18" s="1" t="n">
+      <c r="AM18" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM18" s="1" t="n">
+      <c r="AN18" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR18" s="1" t="s">
         <v>57</v>
@@ -2382,104 +2436,107 @@
       <c r="AS18" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT18" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>18.7</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>54</v>
+      <c r="L19" s="5" t="n">
+        <v>0.4</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="5" t="n">
+      <c r="N19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="V19" s="6" t="n">
+      <c r="P19" s="5"/>
+      <c r="W19" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W19" s="6" t="n">
+      <c r="X19" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X19" s="1" t="n">
+      <c r="Y19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y19" s="1" t="n">
+      <c r="Z19" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z19" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA19" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB19" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC19" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD19" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD19" s="1" t="n">
+      <c r="AE19" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE19" s="1" t="n">
+      <c r="AF19" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF19" s="1" t="n">
+      <c r="AG19" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG19" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH19" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI19" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI19" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ19" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK19" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL19" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL19" s="1" t="n">
+      <c r="AM19" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM19" s="1" t="n">
+      <c r="AN19" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR19" s="1" t="s">
         <v>57</v>
@@ -2487,104 +2544,107 @@
       <c r="AS19" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT19" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>18.7</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>54</v>
+      <c r="L20" s="5" t="n">
+        <v>0.2</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="5" t="n">
+      <c r="N20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="V20" s="6" t="n">
+      <c r="P20" s="5"/>
+      <c r="W20" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W20" s="6" t="n">
+      <c r="X20" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X20" s="1" t="n">
+      <c r="Y20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y20" s="1" t="n">
+      <c r="Z20" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z20" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA20" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB20" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC20" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD20" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD20" s="1" t="n">
+      <c r="AE20" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE20" s="1" t="n">
+      <c r="AF20" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF20" s="1" t="n">
+      <c r="AG20" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG20" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH20" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI20" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI20" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ20" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK20" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL20" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL20" s="1" t="n">
+      <c r="AM20" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM20" s="1" t="n">
+      <c r="AN20" s="1" t="n">
         <v>-9</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AR20" s="1" t="s">
         <v>57</v>
@@ -2592,215 +2652,224 @@
       <c r="AS20" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT20" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>54</v>
+      <c r="L21" s="5" t="n">
+        <v>0.3</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="5" t="n">
+      <c r="N21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="V21" s="6" t="n">
+      <c r="P21" s="5"/>
+      <c r="W21" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W21" s="6" t="n">
+      <c r="X21" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X21" s="1" t="n">
+      <c r="Y21" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y21" s="1" t="n">
+      <c r="Z21" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z21" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA21" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB21" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC21" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD21" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD21" s="1" t="n">
+      <c r="AE21" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE21" s="1" t="n">
+      <c r="AF21" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF21" s="1" t="n">
+      <c r="AG21" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG21" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH21" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI21" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI21" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ21" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK21" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL21" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL21" s="1" t="n">
+      <c r="AM21" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM21" s="1" t="n">
+      <c r="AN21" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="AQ21" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AR21" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AT21" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>17.7</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>54</v>
+      <c r="L22" s="5" t="n">
+        <v>0.3</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="5" t="n">
+      <c r="N22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="5" t="n">
         <v>21.7</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="V22" s="6" t="n">
+      <c r="P22" s="5"/>
+      <c r="W22" s="6" t="n">
         <v>51.5125</v>
       </c>
-      <c r="W22" s="6" t="n">
+      <c r="X22" s="6" t="n">
         <v>-2.1433</v>
       </c>
-      <c r="X22" s="1" t="n">
+      <c r="Y22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y22" s="1" t="n">
+      <c r="Z22" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="Z22" s="1" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="AA22" s="1" t="n">
-        <v>-3.1</v>
+        <v>-9.5</v>
       </c>
       <c r="AB22" s="1" t="n">
-        <v>-9.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AC22" s="1" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD22" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD22" s="1" t="n">
+      <c r="AE22" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AE22" s="1" t="n">
+      <c r="AF22" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF22" s="1" t="n">
+      <c r="AG22" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AG22" s="1" t="n">
-        <v>-4.1</v>
-      </c>
       <c r="AH22" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AI22" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AI22" s="1" t="n">
-        <v>-3.1</v>
-      </c>
       <c r="AJ22" s="1" t="n">
-        <v>-4.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AK22" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AL22" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AL22" s="1" t="n">
+      <c r="AM22" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AM22" s="1" t="n">
+      <c r="AN22" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="AQ22" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AR22" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AS22" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,8 +2878,9 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="V23" s="6"/>
+      <c r="P23" s="5"/>
       <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K24" s="5"/>
@@ -2818,8 +2888,9 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="V24" s="6"/>
+      <c r="P24" s="5"/>
       <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K25" s="5"/>
@@ -2827,8 +2898,9 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="V25" s="6"/>
+      <c r="P25" s="5"/>
       <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K26" s="5"/>
@@ -2836,8 +2908,9 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="V26" s="6"/>
+      <c r="P26" s="5"/>
       <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K27" s="5"/>
@@ -2845,371 +2918,372 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="V27" s="6"/>
+      <c r="P27" s="5"/>
       <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="V28" s="6"/>
+      <c r="P28" s="5"/>
       <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="V29" s="6"/>
+      <c r="P29" s="5"/>
       <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="V30" s="6"/>
+      <c r="P30" s="5"/>
       <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="V31" s="6"/>
+      <c r="P31" s="5"/>
       <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="6"/>
+      <c r="P32" s="5"/>
+      <c r="V32" s="7"/>
       <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="6"/>
+      <c r="P33" s="5"/>
+      <c r="V33" s="7"/>
       <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="6"/>
+      <c r="P34" s="5"/>
+      <c r="V34" s="7"/>
       <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="6"/>
+      <c r="P35" s="5"/>
+      <c r="V35" s="7"/>
       <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
-      <c r="V36" s="6"/>
+      <c r="P36" s="5"/>
       <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="V37" s="6"/>
+      <c r="P37" s="5"/>
       <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
-      <c r="V38" s="6"/>
+      <c r="P38" s="5"/>
       <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
-      <c r="V39" s="6"/>
+      <c r="P39" s="5"/>
       <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
-      <c r="V40" s="6"/>
+      <c r="P40" s="5"/>
       <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
